--- a/medicine/Mort/Huis_clos_(film,_1954)/Huis_clos_(film,_1954).xlsx
+++ b/medicine/Mort/Huis_clos_(film,_1954)/Huis_clos_(film,_1954).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Huis clos est un film français réalisé par Jacqueline Audry et sorti en 1954. Il s'agit d'une libre adaptation de la pièce de théâtre homonyme de Jean-Paul Sartre, l'unité de lieu (« huis clos ») n'étant plus respectée et le nombre de personnages se trouvant nettement augmenté.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux femmes et un homme ayant commis des crimes de leur vivant, se retrouvent enfermés après leur mort, dans un salon anonyme où ils semblent condamnés à une éternelle confrontation.
 « Le film Huis clos que vous allez voir, c'est l'enfer, tel que le conçoit Jean-Paul Sartre. Il n'y a pas de flamme ni d'instruments de tortures. Il n'y a pas de supplices physiques...et les bourreaux... ce sont ceux dont on nous inflige la présence. “L'enfer c'est les autres”. » (générique)
@@ -543,13 +557,15 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Jacqueline Audry, assistée de Edmond Lévy, Serge Vallin, Roland Gritti
 Scénario : Jean-Paul Sartre d'après sa pièce
 Adaptation et dialogue : Jean-Paul Sartre, Pierre Laroche
 Musique : Joseph Kosma
-Chanson : Rue des Blancs-Manteaux, paroles de Jean-Paul Sartre et musique de Joseph Kosma, est interprétée par Arletty[1]. Éditions Enoch et Cie
+Chanson : Rue des Blancs-Manteaux, paroles de Jean-Paul Sartre et musique de Joseph Kosma, est interprétée par Arletty. Éditions Enoch et Cie
 Décors : Maurice Colasson
 Costumes et fourrures : Christian Dior, A. Opelka, Weil
 Photographie : Robert Juillard, assisté de Daniel Diot
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Arletty : Inès Serrano, la lesbienne
@@ -660,7 +678,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tournage a eu lieu du 8 juin au 31 juillet 1954 dans les studios de Boulogne.
 Gaby Silvia joue déjà le rôle d'Estelle lors de la création de la pièce de Jean-Pau Sartre en 1944. Elle jouera le rôle d'Ines à 57 ans (l'âge d'Arletty au moment du tournage du film de Jacqueline Audry), trois ans avant sa mort, en 1977.
@@ -692,7 +712,9 @@
           <t>Réception critique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Qu'est-ce alors qui existait dans la pièce et qui fait défaut au film ? J'ai peine à le déterminer, et le mot qui me vient à l'esprit me parait bien mal approprié. Je l'écris pourtant : c'est la crédibilité. Au théâtre nous participions à l'angoisse, à la fureur, au délire, à la panique, des trois damnés. Nous étouffions avec eux. Nous souffrions avec eux. [...] Le film au contraire ne nous touche guère. C'est un brillant exercice, mais ce n'est qu'un exercice. Inès, Garcin, Estelle, restent pour nous des étrangers.
